--- a/src/uploads/thoikhoabieu.xlsx
+++ b/src/uploads/thoikhoabieu.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowHeight="14640"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>TT</t>
   </si>
@@ -19,7 +22,10 @@
     <t>Mã MH</t>
   </si>
   <si>
-    <t>Môn</t>
+    <t>Tên giảng viên</t>
+  </si>
+  <si>
+    <t>Môn Học</t>
   </si>
   <si>
     <t>Tín chỉ</t>
@@ -44,6 +50,9 @@
   </si>
   <si>
     <t>Ngày học</t>
+  </si>
+  <si>
+    <t>Nguyen Nhat Quang</t>
   </si>
   <si>
     <t>Cơ sở dữ liệu</t>
@@ -79,36 +88,197 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="24">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -122,9 +292,201 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
-    <border/>
+  <borders count="12">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -135,6 +497,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -149,8 +513,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -160,53 +526,332 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -396,26 +1041,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="21.75"/>
-    <col customWidth="1" min="4" max="4" width="12.88"/>
-    <col customWidth="1" min="10" max="10" width="21.5"/>
-    <col customWidth="1" min="11" max="11" width="26.75"/>
+    <col min="3" max="3" width="24.6964285714286" customWidth="1"/>
+    <col min="4" max="4" width="24.5535714285714" customWidth="1"/>
+    <col min="5" max="5" width="12.8839285714286" customWidth="1"/>
+    <col min="11" max="11" width="21.5" customWidth="1"/>
+    <col min="12" max="12" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,270 +1081,294 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>60.0</v>
-      </c>
-      <c r="F2" s="3" t="s">
+    <row r="2" customHeight="1" spans="1:12">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>60</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="H2" s="2">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>60.0</v>
-      </c>
-      <c r="F3" s="3" t="s">
+    <row r="3" customHeight="1" spans="1:12">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>60</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="H3" s="2">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2">
+        <v>3</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="K3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>60.0</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="I4" s="3" t="s">
+    <row r="4" customHeight="1" spans="1:12">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>60</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="5">
-      <c r="A5" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>60.0</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="I5" s="5" t="s">
+    <row r="5" customHeight="1" spans="1:12">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>60</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="4">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4">
+        <v>3</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>15</v>
+      <c r="L5" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+    <row r="6" customHeight="1" spans="1:12">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
     </row>
-    <row r="7">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+    <row r="7" customHeight="1" spans="1:12">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
     </row>
-    <row r="8">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+    <row r="8" customHeight="1" spans="1:12">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
     </row>
-    <row r="9">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+    <row r="9" customHeight="1" spans="1:12">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
     </row>
-    <row r="10">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+    <row r="10" customHeight="1" spans="1:12">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
     </row>
-    <row r="11">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+    <row r="11" customHeight="1" spans="1:12">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
     </row>
-    <row r="12">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+    <row r="12" customHeight="1" spans="1:12">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
     </row>
-    <row r="13">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+    <row r="13" customHeight="1" spans="1:12">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/uploads/thoikhoabieu.xlsx
+++ b/src/uploads/thoikhoabieu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14640"/>
+    <workbookView windowHeight="15240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>TT</t>
   </si>
@@ -22,12 +22,12 @@
     <t>Mã MH</t>
   </si>
   <si>
+    <t>Môn Học</t>
+  </si>
+  <si>
     <t>Tên giảng viên</t>
   </si>
   <si>
-    <t>Môn Học</t>
-  </si>
-  <si>
     <t>Tín chỉ</t>
   </si>
   <si>
@@ -52,12 +52,18 @@
     <t>Ngày học</t>
   </si>
   <si>
+    <t>Học kì</t>
+  </si>
+  <si>
+    <t>Khoa</t>
+  </si>
+  <si>
+    <t>Cơ sở dữ liệu</t>
+  </si>
+  <si>
     <t>Nguyen Nhat Quang</t>
   </si>
   <si>
-    <t>Cơ sở dữ liệu</t>
-  </si>
-  <si>
     <t>thứ 7</t>
   </si>
   <si>
@@ -68,6 +74,15 @@
   </si>
   <si>
     <t>24/03/2023 - 05/05/2023</t>
+  </si>
+  <si>
+    <t>Học Kì IA</t>
+  </si>
+  <si>
+    <t>Công nghệ thông tin</t>
+  </si>
+  <si>
+    <t>B-03-01</t>
   </si>
   <si>
     <t>thứ 3</t>
@@ -90,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -122,31 +137,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,6 +166,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -169,6 +198,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -177,76 +236,39 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,16 +280,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,25 +309,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,13 +423,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,19 +459,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,114 +490,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,21 +544,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -555,6 +555,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,17 +583,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -596,6 +594,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,160 +641,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1050,22 +1065,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="3" max="3" width="24.6964285714286" customWidth="1"/>
     <col min="4" max="4" width="24.5535714285714" customWidth="1"/>
-    <col min="5" max="5" width="12.8839285714286" customWidth="1"/>
-    <col min="11" max="11" width="21.5" customWidth="1"/>
-    <col min="12" max="12" width="26.75" customWidth="1"/>
+    <col min="5" max="5" width="26.3392857142857" customWidth="1"/>
+    <col min="6" max="6" width="12.8839285714286" customWidth="1"/>
+    <col min="12" max="12" width="23.6607142857143" customWidth="1"/>
+    <col min="13" max="14" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:12">
+    <row r="1" customHeight="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1102,8 +1118,14 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" customHeight="1" spans="1:12">
+    <row r="2" customHeight="1" spans="1:14">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1111,10 +1133,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2">
         <v>3</v>
@@ -1123,7 +1145,7 @@
         <v>60</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2">
         <v>7</v>
@@ -1132,16 +1154,22 @@
         <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:12">
+    <row r="3" customHeight="1" spans="1:14">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1149,10 +1177,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2">
         <v>3</v>
@@ -1161,7 +1189,7 @@
         <v>60</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H3" s="2">
         <v>10</v>
@@ -1170,16 +1198,22 @@
         <v>3</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:12">
+    <row r="4" customHeight="1" spans="1:14">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1187,10 +1221,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
@@ -1199,7 +1233,7 @@
         <v>60</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
@@ -1208,27 +1242,33 @@
         <v>3</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>17</v>
+      <c r="N4" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:12">
+    <row r="5" customHeight="1" spans="1:14">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E5" s="4">
         <v>3</v>
@@ -1237,7 +1277,7 @@
         <v>60</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H5" s="4">
         <v>10</v>
@@ -1246,16 +1286,22 @@
         <v>3</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>17</v>
+      <c r="N5" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:12">
+    <row r="6" customHeight="1" spans="1:14">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1268,8 +1314,10 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
     </row>
-    <row r="7" customHeight="1" spans="1:12">
+    <row r="7" customHeight="1" spans="1:14">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1282,8 +1330,10 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
     </row>
-    <row r="8" customHeight="1" spans="1:12">
+    <row r="8" customHeight="1" spans="1:14">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1296,8 +1346,10 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
     </row>
-    <row r="9" customHeight="1" spans="1:12">
+    <row r="9" customHeight="1" spans="1:14">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1310,8 +1362,10 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
     </row>
-    <row r="10" customHeight="1" spans="1:12">
+    <row r="10" customHeight="1" spans="1:14">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1324,8 +1378,10 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
     </row>
-    <row r="11" customHeight="1" spans="1:12">
+    <row r="11" customHeight="1" spans="1:14">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1338,8 +1394,10 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
     </row>
-    <row r="12" customHeight="1" spans="1:12">
+    <row r="12" customHeight="1" spans="1:14">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1352,8 +1410,10 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
     </row>
-    <row r="13" customHeight="1" spans="1:12">
+    <row r="13" customHeight="1" spans="1:14">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1366,6 +1426,8 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/uploads/thoikhoabieu.xlsx
+++ b/src/uploads/thoikhoabieu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15240"/>
+    <workbookView windowHeight="14640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>TT</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>Công nghệ thông tin</t>
-  </si>
-  <si>
-    <t>B-03-01</t>
   </si>
   <si>
     <t>thứ 3</t>
@@ -105,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -137,6 +134,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -144,6 +149,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
@@ -151,8 +187,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,6 +203,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Arial"/>
@@ -173,102 +232,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -279,14 +284,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -309,187 +306,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,6 +541,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -555,15 +561,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,6 +580,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -593,21 +605,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -627,8 +624,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,156 +633,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1068,7 +1065,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
@@ -1198,7 +1195,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>18</v>
@@ -1233,7 +1230,7 @@
         <v>60</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
@@ -1242,10 +1239,10 @@
         <v>3</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>19</v>
@@ -1277,7 +1274,7 @@
         <v>60</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="4">
         <v>10</v>
@@ -1286,10 +1283,10 @@
         <v>3</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>19</v>
